--- a/controller/src/main/resources/jxls_templates/fireaccidentrecord.xlsx
+++ b/controller/src/main/resources/jxls_templates/fireaccidentrecord.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20354"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\08_应急平台\04.设计\03.火灾自动报警系统\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BASF_Project\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1590CDC7-B9FE-4F3A-A71C-9705C3A80DE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18645" windowHeight="7140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18648" windowHeight="7140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="消防事故单" sheetId="4" r:id="rId1"/>
@@ -19,12 +20,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Newtouch</author>
+    <author>王哲</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0" shapeId="0">
+    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A29" authorId="0" shapeId="0">
+    <comment ref="A29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -122,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A33" authorId="0" shapeId="0">
+    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -158,6 +160,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="C80" authorId="1" shapeId="0" xr:uid="{F1B94266-D621-4D93-A8A1-16E50EA7F717}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(src="gisimage" lastCell="C80")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -818,7 +846,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
@@ -1274,6 +1302,123 @@
     <xf numFmtId="177" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="22" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1284,123 +1429,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1420,51 +1448,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>264584</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>137585</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>765025</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>200725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="465667" y="25484668"/>
-          <a:ext cx="6723441" cy="2814807"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1539,6 +1524,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1574,6 +1576,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1749,51 +1768,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="76"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
@@ -1805,7 +1824,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1815,198 +1834,198 @@
       <c r="H5" s="8"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
       <c r="C6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
       <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="70"/>
+      <c r="E7" s="57"/>
       <c r="F7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="60"/>
+      <c r="H7" s="82"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
       <c r="C8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="70"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="60"/>
+      <c r="H8" s="82"/>
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="C9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="70"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="H9" s="58"/>
+      <c r="H9" s="68"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
       <c r="C10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="70"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="G10" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="61"/>
+      <c r="H10" s="69"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
       <c r="C11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="58"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="57" t="s">
+      <c r="G11" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="61"/>
+      <c r="H11" s="69"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="58"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="61"/>
+      <c r="H12" s="69"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="4"/>
       <c r="C13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="58"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="62" t="s">
+      <c r="G13" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="63"/>
+      <c r="H13" s="84"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="4"/>
       <c r="C14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="58"/>
+      <c r="E14" s="68"/>
       <c r="F14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="57" t="s">
+      <c r="G14" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="61"/>
+      <c r="H14" s="69"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
       <c r="C15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="58"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="61"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:10" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="53.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="4"/>
       <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B17" s="4"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2016,7 +2035,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="14" t="s">
         <v>19</v>
       </c>
@@ -2030,7 +2049,7 @@
       <c r="H18" s="15"/>
       <c r="I18" s="16"/>
     </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2040,39 +2059,39 @@
       <c r="H19" s="8"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
       <c r="C20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
       <c r="C21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="69" t="s">
+      <c r="D21" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="70"/>
+      <c r="E21" s="57"/>
       <c r="F21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="80" t="s">
+      <c r="G21" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="81"/>
+      <c r="H21" s="59"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="4"/>
       <c r="C22" s="19"/>
       <c r="D22" s="20"/>
@@ -2083,50 +2102,50 @@
       <c r="I22" s="3"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4"/>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="67"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="54"/>
       <c r="I23" s="3"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="4"/>
       <c r="C24" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="71" t="s">
+      <c r="D24" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="72"/>
+      <c r="E24" s="71"/>
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
       <c r="H24" s="40"/>
       <c r="I24" s="3"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="4"/>
       <c r="C25" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="73" t="s">
+      <c r="D25" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="74"/>
+      <c r="E25" s="73"/>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
       <c r="H25" s="43"/>
       <c r="I25" s="3"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="4"/>
       <c r="C26" s="19"/>
       <c r="D26" s="20"/>
@@ -2137,58 +2156,58 @@
       <c r="I26" s="3"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="4"/>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
       <c r="I27" s="3"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="4"/>
       <c r="C28" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="67"/>
+      <c r="E28" s="54"/>
       <c r="F28" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="65" t="s">
+      <c r="G28" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="67"/>
+      <c r="H28" s="54"/>
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="4"/>
       <c r="C29" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="84" t="s">
+      <c r="D29" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="85"/>
+      <c r="E29" s="63"/>
       <c r="F29" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="G29" s="82" t="s">
+      <c r="G29" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="H29" s="83"/>
+      <c r="H29" s="61"/>
       <c r="I29" s="3"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="4"/>
       <c r="C30" s="19"/>
       <c r="D30" s="20"/>
@@ -2199,20 +2218,20 @@
       <c r="I30" s="3"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="4"/>
-      <c r="C31" s="68" t="s">
+      <c r="C31" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
       <c r="I31" s="3"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="4"/>
       <c r="C32" s="22" t="s">
         <v>29</v>
@@ -2226,14 +2245,14 @@
       <c r="F32" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="65" t="s">
+      <c r="G32" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="67"/>
+      <c r="H32" s="54"/>
       <c r="I32" s="3"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="4"/>
       <c r="C33" s="38" t="s">
         <v>96</v>
@@ -2247,14 +2266,14 @@
       <c r="F33" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="G33" s="78" t="s">
+      <c r="G33" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="H33" s="79"/>
+      <c r="H33" s="65"/>
       <c r="I33" s="3"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="4"/>
       <c r="C34" s="19"/>
       <c r="D34" s="20"/>
@@ -2265,20 +2284,20 @@
       <c r="I34" s="3"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="4"/>
-      <c r="C35" s="68" t="s">
+      <c r="C35" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
       <c r="I35" s="3"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="4"/>
       <c r="C36" s="11" t="s">
         <v>36</v>
@@ -2301,9 +2320,9 @@
       <c r="I36" s="3"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="4"/>
-      <c r="C37" s="75" t="s">
+      <c r="C37" s="49" t="s">
         <v>102</v>
       </c>
       <c r="D37" s="18" t="s">
@@ -2312,7 +2331,7 @@
       <c r="E37" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="75" t="s">
+      <c r="F37" s="49" t="s">
         <v>101</v>
       </c>
       <c r="G37" s="18" t="s">
@@ -2324,16 +2343,16 @@
       <c r="I37" s="3"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="4"/>
-      <c r="C38" s="76"/>
+      <c r="C38" s="50"/>
       <c r="D38" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E38" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F38" s="76"/>
+      <c r="F38" s="50"/>
       <c r="G38" s="18" t="s">
         <v>22</v>
       </c>
@@ -2343,16 +2362,16 @@
       <c r="I38" s="3"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="4"/>
-      <c r="C39" s="77"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="18" t="s">
         <v>40</v>
       </c>
       <c r="E39" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F39" s="77"/>
+      <c r="F39" s="51"/>
       <c r="G39" s="18" t="s">
         <v>40</v>
       </c>
@@ -2362,9 +2381,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="4"/>
-      <c r="C40" s="75" t="s">
+      <c r="C40" s="49" t="s">
         <v>130</v>
       </c>
       <c r="D40" s="18" t="s">
@@ -2373,7 +2392,7 @@
       <c r="E40" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="F40" s="75" t="s">
+      <c r="F40" s="49" t="s">
         <v>107</v>
       </c>
       <c r="G40" s="18" t="s">
@@ -2385,16 +2404,16 @@
       <c r="I40" s="3"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="4"/>
-      <c r="C41" s="76"/>
+      <c r="C41" s="50"/>
       <c r="D41" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E41" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="F41" s="76"/>
+      <c r="F41" s="50"/>
       <c r="G41" s="18" t="s">
         <v>22</v>
       </c>
@@ -2404,16 +2423,16 @@
       <c r="I41" s="3"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="4"/>
-      <c r="C42" s="77"/>
+      <c r="C42" s="51"/>
       <c r="D42" s="18" t="s">
         <v>40</v>
       </c>
       <c r="E42" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F42" s="77"/>
+      <c r="F42" s="51"/>
       <c r="G42" s="18" t="s">
         <v>40</v>
       </c>
@@ -2423,9 +2442,9 @@
       <c r="I42" s="3"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4"/>
-      <c r="C43" s="75" t="s">
+      <c r="C43" s="49" t="s">
         <v>103</v>
       </c>
       <c r="D43" s="18" t="s">
@@ -2434,7 +2453,7 @@
       <c r="E43" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="F43" s="75" t="s">
+      <c r="F43" s="49" t="s">
         <v>106</v>
       </c>
       <c r="G43" s="18" t="s">
@@ -2446,16 +2465,16 @@
       <c r="I43" s="3"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="4"/>
-      <c r="C44" s="76"/>
+      <c r="C44" s="50"/>
       <c r="D44" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E44" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="F44" s="76"/>
+      <c r="F44" s="50"/>
       <c r="G44" s="18" t="s">
         <v>22</v>
       </c>
@@ -2465,16 +2484,16 @@
       <c r="I44" s="3"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
-      <c r="C45" s="77"/>
+      <c r="C45" s="51"/>
       <c r="D45" s="18" t="s">
         <v>40</v>
       </c>
       <c r="E45" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F45" s="77"/>
+      <c r="F45" s="51"/>
       <c r="G45" s="18" t="s">
         <v>40</v>
       </c>
@@ -2484,9 +2503,9 @@
       <c r="I45" s="3"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="4"/>
-      <c r="C46" s="75" t="s">
+      <c r="C46" s="49" t="s">
         <v>104</v>
       </c>
       <c r="D46" s="18" t="s">
@@ -2495,7 +2514,7 @@
       <c r="E46" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="F46" s="75" t="s">
+      <c r="F46" s="49" t="s">
         <v>105</v>
       </c>
       <c r="G46" s="18" t="s">
@@ -2507,16 +2526,16 @@
       <c r="I46" s="3"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="4"/>
-      <c r="C47" s="76"/>
+      <c r="C47" s="50"/>
       <c r="D47" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E47" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="F47" s="76"/>
+      <c r="F47" s="50"/>
       <c r="G47" s="18" t="s">
         <v>22</v>
       </c>
@@ -2526,16 +2545,16 @@
       <c r="I47" s="3"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="4"/>
-      <c r="C48" s="77"/>
+      <c r="C48" s="51"/>
       <c r="D48" s="18" t="s">
         <v>40</v>
       </c>
       <c r="E48" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="F48" s="77"/>
+      <c r="F48" s="51"/>
       <c r="G48" s="18" t="s">
         <v>40</v>
       </c>
@@ -2545,7 +2564,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="4"/>
       <c r="C49" s="29"/>
       <c r="D49" s="30"/>
@@ -2556,20 +2575,20 @@
       <c r="I49" s="3"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="4"/>
-      <c r="C50" s="65" t="s">
+      <c r="C50" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="67"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="54"/>
       <c r="I50" s="3"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="4"/>
       <c r="C51" s="11" t="s">
         <v>41</v>
@@ -2592,9 +2611,9 @@
       <c r="I51" s="3"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="4"/>
-      <c r="C52" s="88" t="s">
+      <c r="C52" s="55" t="s">
         <v>43</v>
       </c>
       <c r="D52" s="18" t="s">
@@ -2603,7 +2622,7 @@
       <c r="E52" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="F52" s="75" t="s">
+      <c r="F52" s="49" t="s">
         <v>44</v>
       </c>
       <c r="G52" s="18" t="s">
@@ -2615,16 +2634,16 @@
       <c r="I52" s="3"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="4"/>
-      <c r="C53" s="88"/>
+      <c r="C53" s="55"/>
       <c r="D53" s="18" t="s">
         <v>158</v>
       </c>
       <c r="E53" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F53" s="77"/>
+      <c r="F53" s="51"/>
       <c r="G53" s="18" t="s">
         <v>162</v>
       </c>
@@ -2634,7 +2653,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="4"/>
       <c r="C54" s="29"/>
       <c r="D54" s="30"/>
@@ -2645,13 +2664,13 @@
       <c r="I54" s="3"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="4"/>
-      <c r="C55" s="68" t="s">
+      <c r="C55" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="68"/>
-      <c r="E55" s="68"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
       <c r="F55" s="29"/>
       <c r="G55" s="26" t="s">
         <v>59</v>
@@ -2660,7 +2679,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="4"/>
       <c r="C56" s="11" t="s">
         <v>41</v>
@@ -2681,7 +2700,7 @@
       <c r="I56" s="3"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="4"/>
       <c r="C57" s="27" t="s">
         <v>46</v>
@@ -2702,7 +2721,7 @@
       <c r="I57" s="3"/>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="4"/>
       <c r="C58" s="27" t="s">
         <v>47</v>
@@ -2723,7 +2742,7 @@
       <c r="I58" s="3"/>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="4"/>
       <c r="C59" s="27" t="s">
         <v>48</v>
@@ -2738,7 +2757,7 @@
       <c r="I59" s="3"/>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="4"/>
       <c r="C60" s="27" t="s">
         <v>49</v>
@@ -2755,22 +2774,22 @@
       <c r="I60" s="3"/>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="4"/>
       <c r="C61" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="86" t="s">
+      <c r="D61" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="E61" s="87"/>
+      <c r="E61" s="48"/>
       <c r="F61" s="20"/>
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
       <c r="I61" s="3"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="4"/>
       <c r="C62" s="19"/>
       <c r="D62" s="20"/>
@@ -2781,7 +2800,7 @@
       <c r="I62" s="3"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="14" t="s">
         <v>50</v>
       </c>
@@ -2793,7 +2812,7 @@
       <c r="H63" s="15"/>
       <c r="I63" s="16"/>
     </row>
-    <row r="64" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="4"/>
       <c r="C64" s="19"/>
       <c r="D64" s="20"/>
@@ -2804,141 +2823,141 @@
       <c r="I64" s="3"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="4"/>
       <c r="C65" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="48" t="s">
+      <c r="D65" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="E65" s="49"/>
+      <c r="E65" s="88"/>
       <c r="I65" s="3"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="4"/>
       <c r="C66" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D66" s="46" t="s">
+      <c r="D66" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="E66" s="47"/>
+      <c r="E66" s="86"/>
       <c r="F66" s="20"/>
       <c r="G66" s="20"/>
       <c r="H66" s="20"/>
       <c r="I66" s="3"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="4"/>
       <c r="C67" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="46" t="s">
+      <c r="D67" s="85" t="s">
         <v>140</v>
       </c>
-      <c r="E67" s="47"/>
+      <c r="E67" s="86"/>
       <c r="F67" s="20"/>
       <c r="G67" s="20"/>
       <c r="H67" s="20"/>
       <c r="I67" s="3"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="4"/>
       <c r="C68" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D68" s="46" t="s">
+      <c r="D68" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="E68" s="47"/>
+      <c r="E68" s="86"/>
       <c r="F68" s="20"/>
       <c r="G68" s="20"/>
       <c r="H68" s="20"/>
       <c r="I68" s="3"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="4"/>
       <c r="C69" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="46" t="s">
+      <c r="D69" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="E69" s="47"/>
+      <c r="E69" s="86"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="4"/>
       <c r="C70" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D70" s="46" t="s">
+      <c r="D70" s="85" t="s">
         <v>143</v>
       </c>
-      <c r="E70" s="47"/>
+      <c r="E70" s="86"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="4"/>
       <c r="C71" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D71" s="46" t="s">
+      <c r="D71" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="E71" s="47"/>
+      <c r="E71" s="86"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="4"/>
       <c r="C72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D72" s="46" t="s">
+      <c r="D72" s="85" t="s">
         <v>145</v>
       </c>
-      <c r="E72" s="47"/>
+      <c r="E72" s="86"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="4"/>
       <c r="C73" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="46" t="s">
+      <c r="D73" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="E73" s="47"/>
+      <c r="E73" s="86"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="4"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="14" t="s">
         <v>63</v>
       </c>
@@ -2950,7 +2969,7 @@
       <c r="H75" s="15"/>
       <c r="I75" s="16"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="4"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -2959,7 +2978,7 @@
       <c r="H76" s="2"/>
       <c r="I76" s="3"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="4"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -2968,7 +2987,7 @@
       <c r="H77" s="2"/>
       <c r="I77" s="3"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="4"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -2977,7 +2996,7 @@
       <c r="H78" s="2"/>
       <c r="I78" s="3"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="4"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -2987,7 +3006,7 @@
       <c r="H79" s="2"/>
       <c r="I79" s="3"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="4"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -2997,7 +3016,7 @@
       <c r="H80" s="2"/>
       <c r="I80" s="3"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B81" s="4"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -3007,7 +3026,7 @@
       <c r="H81" s="2"/>
       <c r="I81" s="3"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B82" s="4"/>
       <c r="C82" s="36"/>
       <c r="D82" s="2"/>
@@ -3017,7 +3036,7 @@
       <c r="H82" s="2"/>
       <c r="I82" s="3"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B83" s="4"/>
       <c r="C83" s="36"/>
       <c r="D83" s="2"/>
@@ -3027,7 +3046,7 @@
       <c r="H83" s="2"/>
       <c r="I83" s="3"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B84" s="4"/>
       <c r="C84" s="36"/>
       <c r="D84" s="2"/>
@@ -3037,7 +3056,7 @@
       <c r="H84" s="2"/>
       <c r="I84" s="3"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B85" s="4"/>
       <c r="C85" s="36"/>
       <c r="D85" s="2"/>
@@ -3046,7 +3065,7 @@
       <c r="H85" s="2"/>
       <c r="I85" s="3"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B86" s="4"/>
       <c r="C86" s="36"/>
       <c r="D86" s="2"/>
@@ -3056,7 +3075,7 @@
       <c r="H86" s="2"/>
       <c r="I86" s="3"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B87" s="4"/>
       <c r="C87" s="36"/>
       <c r="D87" s="2"/>
@@ -3066,7 +3085,7 @@
       <c r="H87" s="2"/>
       <c r="I87" s="3"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B88" s="4"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -3076,7 +3095,7 @@
       <c r="H88" s="2"/>
       <c r="I88" s="3"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B89" s="4"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -3086,7 +3105,7 @@
       <c r="H89" s="2"/>
       <c r="I89" s="3"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B90" s="4"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -3096,7 +3115,7 @@
       <c r="H90" s="2"/>
       <c r="I90" s="3"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B91" s="4"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -3106,7 +3125,7 @@
       <c r="H91" s="2"/>
       <c r="I91" s="3"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B92" s="4"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -3116,7 +3135,7 @@
       <c r="H92" s="2"/>
       <c r="I92" s="3"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B93" s="32"/>
       <c r="C93" s="33"/>
       <c r="D93" s="33"/>
@@ -3128,29 +3147,28 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B2:I3"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D6:H6"/>
     <mergeCell ref="D20:H20"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="C27:H27"/>
@@ -3164,33 +3182,33 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B2:I3"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="F46:F48"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/controller/src/main/resources/jxls_templates/fireaccidentrecord.xlsx
+++ b/controller/src/main/resources/jxls_templates/fireaccidentrecord.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20354"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BASF_Project\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1590CDC7-B9FE-4F3A-A71C-9705C3A80DE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7641538F-7D4F-41A6-98A5-9BE955B70BFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18648" windowHeight="7140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,7 +171,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:image(src="gisimage" lastCell="C80")</t>
+          <t>jx:image(src="gisimage" lastCell="E91")</t>
         </r>
         <r>
           <rPr>
@@ -1274,7 +1274,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1302,134 +1301,137 @@
     <xf numFmtId="177" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1772,7 +1774,7 @@
   <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -1791,26 +1793,26 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="76"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14" t="s">
@@ -1839,13 +1841,13 @@
       <c r="C6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -1853,17 +1855,17 @@
       <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="57"/>
+      <c r="E7" s="69"/>
       <c r="F7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="81" t="s">
+      <c r="G7" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="82"/>
+      <c r="H7" s="59"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -1871,17 +1873,17 @@
       <c r="C8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="57"/>
+      <c r="E8" s="69"/>
       <c r="F8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="81" t="s">
+      <c r="G8" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="82"/>
+      <c r="H8" s="59"/>
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
@@ -1890,17 +1892,17 @@
       <c r="C9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="57"/>
+      <c r="E9" s="69"/>
       <c r="F9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="67" t="s">
+      <c r="G9" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="H9" s="68"/>
+      <c r="H9" s="57"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -1908,17 +1910,17 @@
       <c r="C10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="57"/>
+      <c r="E10" s="69"/>
       <c r="F10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="67" t="s">
+      <c r="G10" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="69"/>
+      <c r="H10" s="60"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -1926,17 +1928,17 @@
       <c r="C11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="68"/>
+      <c r="E11" s="57"/>
       <c r="F11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="67" t="s">
+      <c r="G11" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="69"/>
+      <c r="H11" s="60"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -1944,17 +1946,17 @@
       <c r="C12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="68"/>
+      <c r="E12" s="57"/>
       <c r="F12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="67" t="s">
+      <c r="G12" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="69"/>
+      <c r="H12" s="60"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -1962,17 +1964,17 @@
       <c r="C13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="68"/>
+      <c r="E13" s="57"/>
       <c r="F13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="83" t="s">
+      <c r="G13" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="84"/>
+      <c r="H13" s="62"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -1980,17 +1982,17 @@
       <c r="C14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="68"/>
+      <c r="E14" s="57"/>
       <c r="F14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="67" t="s">
+      <c r="G14" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="69"/>
+      <c r="H14" s="60"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -1998,17 +2000,17 @@
       <c r="C15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="68"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="67" t="s">
+      <c r="G15" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="69"/>
+      <c r="H15" s="60"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="53.1" customHeight="1" x14ac:dyDescent="0.35">
@@ -2016,13 +2018,13 @@
       <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="80" t="s">
+      <c r="D16" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -2064,13 +2066,13 @@
       <c r="C20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -2078,17 +2080,17 @@
       <c r="C21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="57"/>
+      <c r="E21" s="69"/>
       <c r="F21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="59"/>
+      <c r="H21" s="80"/>
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -2104,14 +2106,14 @@
     </row>
     <row r="23" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4"/>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="54"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="66"/>
       <c r="I23" s="3"/>
       <c r="J23" s="5"/>
     </row>
@@ -2124,24 +2126,24 @@
         <v>92</v>
       </c>
       <c r="E24" s="71"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="39"/>
       <c r="I24" s="3"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="4"/>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="43" t="s">
         <v>90</v>
       </c>
       <c r="D25" s="72" t="s">
         <v>91</v>
       </c>
       <c r="E25" s="73"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
       <c r="I25" s="3"/>
       <c r="J25" s="5"/>
     </row>
@@ -2158,14 +2160,14 @@
     </row>
     <row r="27" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="4"/>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
       <c r="I27" s="3"/>
       <c r="J27" s="5"/>
     </row>
@@ -2174,36 +2176,36 @@
       <c r="C28" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="54"/>
+      <c r="E28" s="66"/>
       <c r="F28" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="52" t="s">
+      <c r="G28" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="54"/>
+      <c r="H28" s="66"/>
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="4"/>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="62" t="s">
+      <c r="D29" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="63"/>
-      <c r="F29" s="39" t="s">
+      <c r="E29" s="84"/>
+      <c r="F29" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="G29" s="60" t="s">
+      <c r="G29" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="H29" s="61"/>
+      <c r="H29" s="82"/>
       <c r="I29" s="3"/>
       <c r="J29" s="5"/>
     </row>
@@ -2220,14 +2222,14 @@
     </row>
     <row r="31" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="4"/>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
       <c r="I31" s="3"/>
       <c r="J31" s="5"/>
     </row>
@@ -2245,16 +2247,16 @@
       <c r="F32" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="52" t="s">
+      <c r="G32" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="54"/>
+      <c r="H32" s="66"/>
       <c r="I32" s="3"/>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="4"/>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="37" t="s">
         <v>96</v>
       </c>
       <c r="D33" s="13" t="s">
@@ -2266,10 +2268,10 @@
       <c r="F33" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="G33" s="64" t="s">
+      <c r="G33" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="H33" s="65"/>
+      <c r="H33" s="78"/>
       <c r="I33" s="3"/>
       <c r="J33" s="5"/>
     </row>
@@ -2286,14 +2288,14 @@
     </row>
     <row r="35" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="4"/>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
       <c r="I35" s="3"/>
       <c r="J35" s="5"/>
     </row>
@@ -2322,7 +2324,7 @@
     </row>
     <row r="37" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="4"/>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="74" t="s">
         <v>102</v>
       </c>
       <c r="D37" s="18" t="s">
@@ -2331,7 +2333,7 @@
       <c r="E37" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="49" t="s">
+      <c r="F37" s="74" t="s">
         <v>101</v>
       </c>
       <c r="G37" s="18" t="s">
@@ -2345,14 +2347,14 @@
     </row>
     <row r="38" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="4"/>
-      <c r="C38" s="50"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E38" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F38" s="50"/>
+      <c r="F38" s="75"/>
       <c r="G38" s="18" t="s">
         <v>22</v>
       </c>
@@ -2364,14 +2366,14 @@
     </row>
     <row r="39" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="4"/>
-      <c r="C39" s="51"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="18" t="s">
         <v>40</v>
       </c>
       <c r="E39" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F39" s="51"/>
+      <c r="F39" s="76"/>
       <c r="G39" s="18" t="s">
         <v>40</v>
       </c>
@@ -2383,7 +2385,7 @@
     </row>
     <row r="40" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="4"/>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="74" t="s">
         <v>130</v>
       </c>
       <c r="D40" s="18" t="s">
@@ -2392,7 +2394,7 @@
       <c r="E40" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="F40" s="49" t="s">
+      <c r="F40" s="74" t="s">
         <v>107</v>
       </c>
       <c r="G40" s="18" t="s">
@@ -2406,14 +2408,14 @@
     </row>
     <row r="41" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="4"/>
-      <c r="C41" s="50"/>
+      <c r="C41" s="75"/>
       <c r="D41" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E41" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="F41" s="50"/>
+      <c r="F41" s="75"/>
       <c r="G41" s="18" t="s">
         <v>22</v>
       </c>
@@ -2425,14 +2427,14 @@
     </row>
     <row r="42" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="4"/>
-      <c r="C42" s="51"/>
+      <c r="C42" s="76"/>
       <c r="D42" s="18" t="s">
         <v>40</v>
       </c>
       <c r="E42" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F42" s="51"/>
+      <c r="F42" s="76"/>
       <c r="G42" s="18" t="s">
         <v>40</v>
       </c>
@@ -2444,7 +2446,7 @@
     </row>
     <row r="43" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4"/>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="74" t="s">
         <v>103</v>
       </c>
       <c r="D43" s="18" t="s">
@@ -2453,7 +2455,7 @@
       <c r="E43" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="F43" s="49" t="s">
+      <c r="F43" s="74" t="s">
         <v>106</v>
       </c>
       <c r="G43" s="18" t="s">
@@ -2467,14 +2469,14 @@
     </row>
     <row r="44" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="4"/>
-      <c r="C44" s="50"/>
+      <c r="C44" s="75"/>
       <c r="D44" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E44" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="F44" s="50"/>
+      <c r="F44" s="75"/>
       <c r="G44" s="18" t="s">
         <v>22</v>
       </c>
@@ -2486,14 +2488,14 @@
     </row>
     <row r="45" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
-      <c r="C45" s="51"/>
+      <c r="C45" s="76"/>
       <c r="D45" s="18" t="s">
         <v>40</v>
       </c>
       <c r="E45" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F45" s="51"/>
+      <c r="F45" s="76"/>
       <c r="G45" s="18" t="s">
         <v>40</v>
       </c>
@@ -2505,7 +2507,7 @@
     </row>
     <row r="46" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="4"/>
-      <c r="C46" s="49" t="s">
+      <c r="C46" s="74" t="s">
         <v>104</v>
       </c>
       <c r="D46" s="18" t="s">
@@ -2514,7 +2516,7 @@
       <c r="E46" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="F46" s="49" t="s">
+      <c r="F46" s="74" t="s">
         <v>105</v>
       </c>
       <c r="G46" s="18" t="s">
@@ -2528,14 +2530,14 @@
     </row>
     <row r="47" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="4"/>
-      <c r="C47" s="50"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E47" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="F47" s="50"/>
+      <c r="F47" s="75"/>
       <c r="G47" s="18" t="s">
         <v>22</v>
       </c>
@@ -2547,14 +2549,14 @@
     </row>
     <row r="48" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="4"/>
-      <c r="C48" s="51"/>
+      <c r="C48" s="76"/>
       <c r="D48" s="18" t="s">
         <v>40</v>
       </c>
       <c r="E48" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="F48" s="51"/>
+      <c r="F48" s="76"/>
       <c r="G48" s="18" t="s">
         <v>40</v>
       </c>
@@ -2577,14 +2579,14 @@
     </row>
     <row r="50" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="4"/>
-      <c r="C50" s="52" t="s">
+      <c r="C50" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="54"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="66"/>
       <c r="I50" s="3"/>
       <c r="J50" s="5"/>
     </row>
@@ -2613,7 +2615,7 @@
     </row>
     <row r="52" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="4"/>
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="87" t="s">
         <v>43</v>
       </c>
       <c r="D52" s="18" t="s">
@@ -2622,7 +2624,7 @@
       <c r="E52" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="F52" s="49" t="s">
+      <c r="F52" s="74" t="s">
         <v>44</v>
       </c>
       <c r="G52" s="18" t="s">
@@ -2636,14 +2638,14 @@
     </row>
     <row r="53" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="4"/>
-      <c r="C53" s="55"/>
+      <c r="C53" s="87"/>
       <c r="D53" s="18" t="s">
         <v>158</v>
       </c>
       <c r="E53" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F53" s="51"/>
+      <c r="F53" s="76"/>
       <c r="G53" s="18" t="s">
         <v>162</v>
       </c>
@@ -2666,16 +2668,16 @@
     </row>
     <row r="55" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="4"/>
-      <c r="C55" s="46" t="s">
+      <c r="C55" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
       <c r="F55" s="29"/>
       <c r="G55" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="H55" s="37"/>
+      <c r="H55" s="36"/>
       <c r="I55" s="3"/>
       <c r="J55" s="5"/>
     </row>
@@ -2694,7 +2696,7 @@
       <c r="G56" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H56" s="45" t="s">
+      <c r="H56" s="44" t="s">
         <v>152</v>
       </c>
       <c r="I56" s="3"/>
@@ -2779,10 +2781,10 @@
       <c r="C61" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="47" t="s">
+      <c r="D61" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="E61" s="48"/>
+      <c r="E61" s="86"/>
       <c r="F61" s="20"/>
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
@@ -2828,10 +2830,10 @@
       <c r="C65" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="87" t="s">
+      <c r="D65" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="E65" s="88"/>
+      <c r="E65" s="48"/>
       <c r="I65" s="3"/>
       <c r="J65" s="5"/>
     </row>
@@ -2840,10 +2842,10 @@
       <c r="C66" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D66" s="85" t="s">
+      <c r="D66" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="E66" s="86"/>
+      <c r="E66" s="46"/>
       <c r="F66" s="20"/>
       <c r="G66" s="20"/>
       <c r="H66" s="20"/>
@@ -2855,10 +2857,10 @@
       <c r="C67" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="85" t="s">
+      <c r="D67" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="E67" s="86"/>
+      <c r="E67" s="46"/>
       <c r="F67" s="20"/>
       <c r="G67" s="20"/>
       <c r="H67" s="20"/>
@@ -2870,10 +2872,10 @@
       <c r="C68" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D68" s="85" t="s">
+      <c r="D68" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="E68" s="86"/>
+      <c r="E68" s="46"/>
       <c r="F68" s="20"/>
       <c r="G68" s="20"/>
       <c r="H68" s="20"/>
@@ -2885,10 +2887,10 @@
       <c r="C69" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="85" t="s">
+      <c r="D69" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="E69" s="86"/>
+      <c r="E69" s="46"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -2899,10 +2901,10 @@
       <c r="C70" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D70" s="85" t="s">
+      <c r="D70" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="E70" s="86"/>
+      <c r="E70" s="46"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -2913,10 +2915,10 @@
       <c r="C71" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D71" s="85" t="s">
+      <c r="D71" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="E71" s="86"/>
+      <c r="E71" s="46"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -2927,10 +2929,10 @@
       <c r="C72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D72" s="85" t="s">
+      <c r="D72" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="E72" s="86"/>
+      <c r="E72" s="46"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -2941,10 +2943,10 @@
       <c r="C73" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="85" t="s">
+      <c r="D73" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="E73" s="86"/>
+      <c r="E73" s="46"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -3008,9 +3010,9 @@
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="4"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="88"/>
+      <c r="E80" s="88"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -3018,9 +3020,9 @@
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B81" s="4"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
+      <c r="C81" s="88"/>
+      <c r="D81" s="88"/>
+      <c r="E81" s="88"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -3028,9 +3030,9 @@
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B82" s="4"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
+      <c r="C82" s="88"/>
+      <c r="D82" s="88"/>
+      <c r="E82" s="88"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -3038,9 +3040,9 @@
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B83" s="4"/>
-      <c r="C83" s="36"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
+      <c r="C83" s="88"/>
+      <c r="D83" s="88"/>
+      <c r="E83" s="88"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -3048,9 +3050,9 @@
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B84" s="4"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
+      <c r="C84" s="88"/>
+      <c r="D84" s="88"/>
+      <c r="E84" s="88"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -3058,18 +3060,18 @@
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B85" s="4"/>
-      <c r="C85" s="36"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
+      <c r="C85" s="88"/>
+      <c r="D85" s="88"/>
+      <c r="E85" s="88"/>
       <c r="G85" s="35"/>
       <c r="H85" s="2"/>
       <c r="I85" s="3"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B86" s="4"/>
-      <c r="C86" s="36"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
+      <c r="C86" s="88"/>
+      <c r="D86" s="88"/>
+      <c r="E86" s="88"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -3077,9 +3079,9 @@
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B87" s="4"/>
-      <c r="C87" s="36"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
+      <c r="C87" s="88"/>
+      <c r="D87" s="88"/>
+      <c r="E87" s="88"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
@@ -3087,9 +3089,9 @@
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B88" s="4"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
+      <c r="C88" s="88"/>
+      <c r="D88" s="88"/>
+      <c r="E88" s="88"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -3097,9 +3099,9 @@
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B89" s="4"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
+      <c r="C89" s="88"/>
+      <c r="D89" s="88"/>
+      <c r="E89" s="88"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
@@ -3107,9 +3109,9 @@
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B90" s="4"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
+      <c r="C90" s="88"/>
+      <c r="D90" s="88"/>
+      <c r="E90" s="88"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
@@ -3117,9 +3119,9 @@
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B91" s="4"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
+      <c r="C91" s="88"/>
+      <c r="D91" s="88"/>
+      <c r="E91" s="88"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
@@ -3146,16 +3148,44 @@
       <c r="I93" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
+  <mergeCells count="59">
+    <mergeCell ref="C80:E91"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="B2:I3"/>
     <mergeCell ref="D16:H16"/>
     <mergeCell ref="D13:E13"/>
@@ -3169,42 +3199,15 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/controller/src/main/resources/jxls_templates/fireaccidentrecord.xlsx
+++ b/controller/src/main/resources/jxls_templates/fireaccidentrecord.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20356"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BASF_Project\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\idea_project\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7641538F-7D4F-41A6-98A5-9BE955B70BFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18648" windowHeight="7140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18645" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="消防事故单" sheetId="4" r:id="rId1"/>
@@ -20,13 +19,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Newtouch</author>
     <author>王哲</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="A29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="A33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C80" authorId="1" shapeId="0" xr:uid="{F1B94266-D621-4D93-A8A1-16E50EA7F717}">
+    <comment ref="C80" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -607,14 +606,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1号安保车（${commandrecord.carinfo.car1.ffs}FFs）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2号安保车（${commandrecord.carinfo.car8.ffs}FFs）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>6号泡沫水罐车（${commandrecord.carinfo.car6.ffs}FFs）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -732,10 +723,6 @@
   </si>
   <si>
     <t>${commandrecord.carinfo.car7.goBack}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${commandrecord.InternalNotification.simt=="1"?"SIMT":""}  ${commandrecord.InternalNotification.ehs=="1"?"EHS":""}  ${commandrecord.InternalNotification.plant=="1"?"Plant":""}  ${commandrecord.InternalNotification.em=="1"?"E&amp;M":""}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -840,13 +827,25 @@
   </si>
   <si>
     <t>${commandrecord.MedicalCare.scipMc.arrive!=""?"已到达":"未到达"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1号安保车（${commandrecord.carinfo.car1.ffs}SGs）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2号安保车（${commandrecord.carinfo.car8.ffs}SGs）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${commandrecord.InternalNotification.simt=="1"?"SIMT":""}  ${commandrecord.InternalNotification.ehs=="1"?"EHS":""}  ${commandrecord.InternalNotification.plant=="1"?"Plant":""}  ${commandrecord.InternalNotification.em=="1"?"E&amp;M":""}  ${commandrecord.InternalNotification.others}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
@@ -1301,6 +1300,126 @@
     <xf numFmtId="177" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="22" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1312,126 +1431,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1451,7 +1450,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1526,23 +1525,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1578,23 +1560,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1770,51 +1735,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="49" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="76"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
@@ -1826,7 +1791,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1836,198 +1801,198 @@
       <c r="H5" s="8"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
       <c r="C6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
       <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="69"/>
+      <c r="E7" s="57"/>
       <c r="F7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="59"/>
+      <c r="H7" s="82"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="69"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="59"/>
+      <c r="H8" s="82"/>
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="69"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="H9" s="57"/>
+      <c r="H9" s="68"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="69"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="60"/>
+      <c r="H10" s="69"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="57"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="60"/>
+      <c r="H11" s="69"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="57"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="60"/>
+      <c r="H12" s="69"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="57"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="62"/>
+      <c r="H13" s="84"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="57"/>
+      <c r="E14" s="68"/>
       <c r="F14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="60"/>
+      <c r="H14" s="69"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="57"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="60"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:10" ht="53.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2037,13 +2002,13 @@
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="15"/>
@@ -2051,7 +2016,7 @@
       <c r="H18" s="15"/>
       <c r="I18" s="16"/>
     </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2061,39 +2026,39 @@
       <c r="H19" s="8"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
       <c r="C21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="69"/>
+      <c r="E21" s="57"/>
       <c r="F21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="79" t="s">
+      <c r="G21" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="80"/>
+      <c r="H21" s="59"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="19"/>
       <c r="D22" s="20"/>
@@ -2104,20 +2069,20 @@
       <c r="I22" s="3"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="66"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="54"/>
       <c r="I23" s="3"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
       <c r="C24" s="11" t="s">
         <v>93</v>
@@ -2132,7 +2097,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
       <c r="C25" s="43" t="s">
         <v>90</v>
@@ -2147,7 +2112,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="19"/>
       <c r="D26" s="20"/>
@@ -2158,58 +2123,58 @@
       <c r="I26" s="3"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
       <c r="I27" s="3"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
       <c r="C28" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="66"/>
+      <c r="E28" s="54"/>
       <c r="F28" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="64" t="s">
+      <c r="G28" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="66"/>
+      <c r="H28" s="54"/>
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
       <c r="C29" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="83" t="s">
+      <c r="D29" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="84"/>
+      <c r="E29" s="63"/>
       <c r="F29" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="G29" s="81" t="s">
+      <c r="G29" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="H29" s="82"/>
+      <c r="H29" s="61"/>
       <c r="I29" s="3"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
       <c r="C30" s="19"/>
       <c r="D30" s="20"/>
@@ -2220,20 +2185,20 @@
       <c r="I30" s="3"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
       <c r="I31" s="3"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
       <c r="C32" s="22" t="s">
         <v>29</v>
@@ -2247,14 +2212,14 @@
       <c r="F32" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="64" t="s">
+      <c r="G32" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="66"/>
+      <c r="H32" s="54"/>
       <c r="I32" s="3"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="4"/>
       <c r="C33" s="37" t="s">
         <v>96</v>
@@ -2268,14 +2233,14 @@
       <c r="F33" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="G33" s="77" t="s">
+      <c r="G33" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="H33" s="78"/>
+      <c r="H33" s="65"/>
       <c r="I33" s="3"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="4"/>
       <c r="C34" s="19"/>
       <c r="D34" s="20"/>
@@ -2286,20 +2251,20 @@
       <c r="I34" s="3"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="4"/>
-      <c r="C35" s="67" t="s">
+      <c r="C35" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
       <c r="I35" s="3"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="4"/>
       <c r="C36" s="11" t="s">
         <v>36</v>
@@ -2322,251 +2287,251 @@
       <c r="I36" s="3"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="4"/>
-      <c r="C37" s="74" t="s">
+      <c r="C37" s="49" t="s">
         <v>102</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>39</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="49" t="s">
         <v>101</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="4"/>
-      <c r="C38" s="75"/>
+      <c r="C38" s="50"/>
       <c r="D38" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="F38" s="75"/>
+        <v>107</v>
+      </c>
+      <c r="F38" s="50"/>
       <c r="G38" s="18" t="s">
         <v>22</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="4"/>
-      <c r="C39" s="76"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="18" t="s">
         <v>40</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="F39" s="76"/>
+        <v>108</v>
+      </c>
+      <c r="F39" s="51"/>
       <c r="G39" s="18" t="s">
         <v>40</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="4"/>
-      <c r="C40" s="74" t="s">
-        <v>130</v>
+      <c r="C40" s="49" t="s">
+        <v>128</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>39</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="F40" s="74" t="s">
-        <v>107</v>
+        <v>112</v>
+      </c>
+      <c r="F40" s="49" t="s">
+        <v>105</v>
       </c>
       <c r="G40" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
-      <c r="C41" s="75"/>
+      <c r="C41" s="50"/>
       <c r="D41" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="F41" s="75"/>
+        <v>113</v>
+      </c>
+      <c r="F41" s="50"/>
       <c r="G41" s="18" t="s">
         <v>22</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="4"/>
-      <c r="C42" s="76"/>
+      <c r="C42" s="51"/>
       <c r="D42" s="18" t="s">
         <v>40</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="F42" s="76"/>
+        <v>114</v>
+      </c>
+      <c r="F42" s="51"/>
       <c r="G42" s="18" t="s">
         <v>40</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="4"/>
-      <c r="C43" s="74" t="s">
+      <c r="C43" s="49" t="s">
         <v>103</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>39</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="F43" s="74" t="s">
-        <v>106</v>
+        <v>118</v>
+      </c>
+      <c r="F43" s="49" t="s">
+        <v>104</v>
       </c>
       <c r="G43" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="4"/>
-      <c r="C44" s="75"/>
+      <c r="C44" s="50"/>
       <c r="D44" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="F44" s="75"/>
+        <v>119</v>
+      </c>
+      <c r="F44" s="50"/>
       <c r="G44" s="18" t="s">
         <v>22</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="4"/>
-      <c r="C45" s="76"/>
+      <c r="C45" s="51"/>
       <c r="D45" s="18" t="s">
         <v>40</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F45" s="76"/>
+        <v>120</v>
+      </c>
+      <c r="F45" s="51"/>
       <c r="G45" s="18" t="s">
         <v>40</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="4"/>
-      <c r="C46" s="74" t="s">
-        <v>104</v>
+      <c r="C46" s="49" t="s">
+        <v>160</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>39</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="F46" s="74" t="s">
-        <v>105</v>
+        <v>124</v>
+      </c>
+      <c r="F46" s="49" t="s">
+        <v>161</v>
       </c>
       <c r="G46" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="4"/>
-      <c r="C47" s="75"/>
+      <c r="C47" s="50"/>
       <c r="D47" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="F47" s="75"/>
+        <v>129</v>
+      </c>
+      <c r="F47" s="50"/>
       <c r="G47" s="18" t="s">
         <v>22</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="4"/>
-      <c r="C48" s="76"/>
+      <c r="C48" s="51"/>
       <c r="D48" s="18" t="s">
         <v>40</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="F48" s="76"/>
+        <v>133</v>
+      </c>
+      <c r="F48" s="51"/>
       <c r="G48" s="18" t="s">
         <v>40</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="4"/>
       <c r="C49" s="29"/>
       <c r="D49" s="30"/>
@@ -2577,20 +2542,20 @@
       <c r="I49" s="3"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="4"/>
-      <c r="C50" s="64" t="s">
+      <c r="C50" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="66"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="54"/>
       <c r="I50" s="3"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="4"/>
       <c r="C51" s="11" t="s">
         <v>41</v>
@@ -2613,49 +2578,49 @@
       <c r="I51" s="3"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="4"/>
-      <c r="C52" s="87" t="s">
+      <c r="C52" s="55" t="s">
         <v>43</v>
       </c>
       <c r="D52" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="H52" s="28" t="s">
         <v>156</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="F52" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="H52" s="28" t="s">
-        <v>159</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="4"/>
-      <c r="C53" s="87"/>
+      <c r="C53" s="55"/>
       <c r="D53" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F53" s="51"/>
+      <c r="G53" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="H53" s="28" t="s">
         <v>158</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="F53" s="76"/>
-      <c r="G53" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="H53" s="28" t="s">
-        <v>161</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="4"/>
       <c r="C54" s="29"/>
       <c r="D54" s="30"/>
@@ -2666,13 +2631,13 @@
       <c r="I54" s="3"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="4"/>
-      <c r="C55" s="67" t="s">
+      <c r="C55" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
       <c r="F55" s="29"/>
       <c r="G55" s="26" t="s">
         <v>59</v>
@@ -2681,7 +2646,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="4"/>
       <c r="C56" s="11" t="s">
         <v>41</v>
@@ -2697,78 +2662,78 @@
         <v>60</v>
       </c>
       <c r="H56" s="44" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
       <c r="C57" s="27" t="s">
         <v>46</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F57" s="29"/>
       <c r="G57" s="10" t="s">
         <v>61</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
       <c r="C58" s="27" t="s">
         <v>47</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F58" s="29"/>
       <c r="G58" s="10" t="s">
         <v>62</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="4"/>
       <c r="C59" s="27" t="s">
         <v>48</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F59" s="20"/>
       <c r="I59" s="3"/>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="4"/>
       <c r="C60" s="27" t="s">
         <v>49</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F60" s="20"/>
       <c r="G60" s="30"/>
@@ -2776,22 +2741,22 @@
       <c r="I60" s="3"/>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="4"/>
       <c r="C61" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="85" t="s">
-        <v>132</v>
-      </c>
-      <c r="E61" s="86"/>
+      <c r="D61" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="E61" s="48"/>
       <c r="F61" s="20"/>
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
       <c r="I61" s="3"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="4"/>
       <c r="C62" s="19"/>
       <c r="D62" s="20"/>
@@ -2802,7 +2767,7 @@
       <c r="I62" s="3"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
         <v>50</v>
       </c>
@@ -2814,7 +2779,7 @@
       <c r="H63" s="15"/>
       <c r="I63" s="16"/>
     </row>
-    <row r="64" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="4"/>
       <c r="C64" s="19"/>
       <c r="D64" s="20"/>
@@ -2825,141 +2790,141 @@
       <c r="I64" s="3"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="4"/>
       <c r="C65" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="47" t="s">
+      <c r="D65" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="E65" s="48"/>
+      <c r="E65" s="88"/>
       <c r="I65" s="3"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="4"/>
       <c r="C66" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D66" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="E66" s="46"/>
+        <v>134</v>
+      </c>
+      <c r="D66" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="E66" s="86"/>
       <c r="F66" s="20"/>
       <c r="G66" s="20"/>
       <c r="H66" s="20"/>
       <c r="I66" s="3"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="4"/>
       <c r="C67" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="E67" s="46"/>
+      <c r="D67" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="E67" s="86"/>
       <c r="F67" s="20"/>
       <c r="G67" s="20"/>
       <c r="H67" s="20"/>
       <c r="I67" s="3"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="4"/>
       <c r="C68" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D68" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="E68" s="46"/>
+      <c r="D68" s="85" t="s">
+        <v>138</v>
+      </c>
+      <c r="E68" s="86"/>
       <c r="F68" s="20"/>
       <c r="G68" s="20"/>
       <c r="H68" s="20"/>
       <c r="I68" s="3"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="4"/>
       <c r="C69" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="E69" s="46"/>
+      <c r="D69" s="85" t="s">
+        <v>139</v>
+      </c>
+      <c r="E69" s="86"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="4"/>
       <c r="C70" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D70" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="E70" s="46"/>
+      <c r="D70" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="E70" s="86"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="4"/>
       <c r="C71" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D71" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="E71" s="46"/>
+      <c r="D71" s="85" t="s">
+        <v>141</v>
+      </c>
+      <c r="E71" s="86"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="4"/>
       <c r="C72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D72" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="E72" s="46"/>
+      <c r="D72" s="85" t="s">
+        <v>142</v>
+      </c>
+      <c r="E72" s="86"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="4"/>
       <c r="C73" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="E73" s="46"/>
+      <c r="D73" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="E73" s="86"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="4"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="14" t="s">
         <v>63</v>
       </c>
@@ -2971,7 +2936,7 @@
       <c r="H75" s="15"/>
       <c r="I75" s="16"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -2980,7 +2945,7 @@
       <c r="H76" s="2"/>
       <c r="I76" s="3"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -2989,7 +2954,7 @@
       <c r="H77" s="2"/>
       <c r="I77" s="3"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B78" s="4"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -2998,7 +2963,7 @@
       <c r="H78" s="2"/>
       <c r="I78" s="3"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B79" s="4"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -3008,126 +2973,126 @@
       <c r="H79" s="2"/>
       <c r="I79" s="3"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" s="4"/>
-      <c r="C80" s="88"/>
-      <c r="D80" s="88"/>
-      <c r="E80" s="88"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="45"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="3"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="4"/>
-      <c r="C81" s="88"/>
-      <c r="D81" s="88"/>
-      <c r="E81" s="88"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="45"/>
+      <c r="E81" s="45"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="3"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="4"/>
-      <c r="C82" s="88"/>
-      <c r="D82" s="88"/>
-      <c r="E82" s="88"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="45"/>
+      <c r="E82" s="45"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="3"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="4"/>
-      <c r="C83" s="88"/>
-      <c r="D83" s="88"/>
-      <c r="E83" s="88"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="45"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="3"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="4"/>
-      <c r="C84" s="88"/>
-      <c r="D84" s="88"/>
-      <c r="E84" s="88"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="45"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="3"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="4"/>
-      <c r="C85" s="88"/>
-      <c r="D85" s="88"/>
-      <c r="E85" s="88"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="45"/>
       <c r="G85" s="35"/>
       <c r="H85" s="2"/>
       <c r="I85" s="3"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="4"/>
-      <c r="C86" s="88"/>
-      <c r="D86" s="88"/>
-      <c r="E86" s="88"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="45"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="3"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="4"/>
-      <c r="C87" s="88"/>
-      <c r="D87" s="88"/>
-      <c r="E87" s="88"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="45"/>
+      <c r="E87" s="45"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="3"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="4"/>
-      <c r="C88" s="88"/>
-      <c r="D88" s="88"/>
-      <c r="E88" s="88"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="45"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="3"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="4"/>
-      <c r="C89" s="88"/>
-      <c r="D89" s="88"/>
-      <c r="E89" s="88"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="45"/>
+      <c r="E89" s="45"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="3"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="4"/>
-      <c r="C90" s="88"/>
-      <c r="D90" s="88"/>
-      <c r="E90" s="88"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="45"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="3"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="4"/>
-      <c r="C91" s="88"/>
-      <c r="D91" s="88"/>
-      <c r="E91" s="88"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="45"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="3"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="4"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -3137,7 +3102,7 @@
       <c r="H92" s="2"/>
       <c r="I92" s="3"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="32"/>
       <c r="C93" s="33"/>
       <c r="D93" s="33"/>
@@ -3149,30 +3114,24 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C80:E91"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B2:I3"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D6:H6"/>
     <mergeCell ref="D20:H20"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="C27:H27"/>
@@ -3186,28 +3145,34 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B2:I3"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="C80:E91"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="F46:F48"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/controller/src/main/resources/jxls_templates/fireaccidentrecord.xlsx
+++ b/controller/src/main/resources/jxls_templates/fireaccidentrecord.xlsx
@@ -470,10 +470,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${firealarm.typacc}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${firealarm.accunit}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -839,6 +835,10 @@
   </si>
   <si>
     <t>${commandrecord.InternalNotification.simt=="1"?"SIMT":""}  ${commandrecord.InternalNotification.ehs=="1"?"EHS":""}  ${commandrecord.InternalNotification.plant=="1"?"Plant":""}  ${commandrecord.InternalNotification.em=="1"?"E&amp;M":""}  ${commandrecord.InternalNotification.others}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${commandrecord.alarmType.fire=="1"?"火灾":""}  ${commandrecord.alarmType.leak=="1"?"泄漏":""}  ${commandrecord.alarmType.gasLeak=="1"?"毒气泄漏":""}  ${commandrecord.alarmType.Injured=="1"?"受伤":""}  ${commandrecord.alarmType.other}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1333,6 +1333,12 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1419,12 +1425,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1739,7 +1739,7 @@
   <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:E10"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1758,26 +1758,26 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="76"/>
+      <c r="B2" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -1806,13 +1806,13 @@
       <c r="C6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -1820,17 +1820,17 @@
       <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="57"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="81" t="s">
+      <c r="G7" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="82"/>
+      <c r="H7" s="84"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1838,17 +1838,17 @@
       <c r="C8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="57"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="81" t="s">
+      <c r="G8" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="82"/>
+      <c r="H8" s="84"/>
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
@@ -1857,17 +1857,17 @@
       <c r="C9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="57"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="68"/>
+      <c r="G9" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="70"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1875,17 +1875,17 @@
       <c r="C10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="57"/>
+      <c r="D10" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="59"/>
       <c r="F10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="69"/>
+      <c r="G10" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="71"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1893,17 +1893,17 @@
       <c r="C11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="68"/>
+      <c r="D11" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="70"/>
       <c r="F11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="69"/>
+      <c r="G11" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="71"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1911,17 +1911,17 @@
       <c r="C12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="68"/>
+      <c r="D12" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="70"/>
       <c r="F12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="69"/>
+      <c r="G12" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="71"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1929,17 +1929,17 @@
       <c r="C13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="68"/>
+      <c r="D13" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="70"/>
       <c r="F13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" s="84"/>
+      <c r="G13" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="86"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1947,17 +1947,17 @@
       <c r="C14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="68"/>
+      <c r="D14" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="70"/>
       <c r="F14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="69"/>
+      <c r="G14" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="71"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1965,17 +1965,17 @@
       <c r="C15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="68"/>
+      <c r="D15" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="70"/>
       <c r="F15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="69"/>
+      <c r="G15" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="71"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1983,13 +1983,13 @@
       <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
+      <c r="D16" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="15"/>
@@ -2031,13 +2031,13 @@
       <c r="C20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
+      <c r="D20" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2045,17 +2045,17 @@
       <c r="C21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="57"/>
+      <c r="D21" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="59"/>
       <c r="F21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="H21" s="59"/>
+      <c r="G21" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="61"/>
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2085,12 +2085,12 @@
     <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
       <c r="C24" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="71"/>
+      <c r="D24" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="73"/>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="39"/>
@@ -2100,12 +2100,12 @@
     <row r="25" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
       <c r="C25" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="73"/>
+      <c r="E25" s="75"/>
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
       <c r="H25" s="42"/>
@@ -2158,19 +2158,19 @@
     <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
       <c r="C29" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="63"/>
+      <c r="D29" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="65"/>
       <c r="F29" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="H29" s="61"/>
+      <c r="G29" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="63"/>
       <c r="I29" s="3"/>
       <c r="J29" s="5"/>
     </row>
@@ -2222,21 +2222,21 @@
     <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="4"/>
       <c r="C33" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G33" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="H33" s="65"/>
+      <c r="H33" s="67"/>
       <c r="I33" s="3"/>
       <c r="J33" s="5"/>
     </row>
@@ -2290,22 +2290,22 @@
     <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="4"/>
       <c r="C37" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>39</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F37" s="49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="5"/>
@@ -2317,14 +2317,14 @@
         <v>22</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F38" s="50"/>
       <c r="G38" s="18" t="s">
         <v>22</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="5"/>
@@ -2336,14 +2336,14 @@
         <v>40</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F39" s="51"/>
       <c r="G39" s="18" t="s">
         <v>40</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="5"/>
@@ -2351,22 +2351,22 @@
     <row r="40" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="4"/>
       <c r="C40" s="49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>39</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F40" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G40" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="5"/>
@@ -2378,14 +2378,14 @@
         <v>22</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F41" s="50"/>
       <c r="G41" s="18" t="s">
         <v>22</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="5"/>
@@ -2397,14 +2397,14 @@
         <v>40</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F42" s="51"/>
       <c r="G42" s="18" t="s">
         <v>40</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="5"/>
@@ -2412,22 +2412,22 @@
     <row r="43" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="4"/>
       <c r="C43" s="49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>39</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F43" s="49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G43" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="5"/>
@@ -2439,14 +2439,14 @@
         <v>22</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F44" s="50"/>
       <c r="G44" s="18" t="s">
         <v>22</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="5"/>
@@ -2458,14 +2458,14 @@
         <v>40</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F45" s="51"/>
       <c r="G45" s="18" t="s">
         <v>40</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="5"/>
@@ -2473,22 +2473,22 @@
     <row r="46" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="4"/>
       <c r="C46" s="49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>39</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F46" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G46" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="5"/>
@@ -2500,14 +2500,14 @@
         <v>22</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F47" s="50"/>
       <c r="G47" s="18" t="s">
         <v>22</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="5"/>
@@ -2519,14 +2519,14 @@
         <v>40</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F48" s="51"/>
       <c r="G48" s="18" t="s">
         <v>40</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="5"/>
@@ -2584,19 +2584,19 @@
         <v>43</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F52" s="49" t="s">
         <v>44</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="5"/>
@@ -2605,17 +2605,17 @@
       <c r="B53" s="4"/>
       <c r="C53" s="55"/>
       <c r="D53" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F53" s="51"/>
       <c r="G53" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="5"/>
@@ -2662,7 +2662,7 @@
         <v>60</v>
       </c>
       <c r="H56" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="5"/>
@@ -2673,17 +2673,17 @@
         <v>46</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F57" s="29"/>
       <c r="G57" s="10" t="s">
         <v>61</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="5"/>
@@ -2694,17 +2694,17 @@
         <v>47</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F58" s="29"/>
       <c r="G58" s="10" t="s">
         <v>62</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="5"/>
@@ -2715,10 +2715,10 @@
         <v>48</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F59" s="20"/>
       <c r="I59" s="3"/>
@@ -2730,10 +2730,10 @@
         <v>49</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F60" s="20"/>
       <c r="G60" s="30"/>
@@ -2747,7 +2747,7 @@
         <v>23</v>
       </c>
       <c r="D61" s="47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E61" s="48"/>
       <c r="F61" s="20"/>
@@ -2805,12 +2805,12 @@
     <row r="66" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="4"/>
       <c r="C66" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D66" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="E66" s="86"/>
+        <v>133</v>
+      </c>
+      <c r="D66" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" s="57"/>
       <c r="F66" s="20"/>
       <c r="G66" s="20"/>
       <c r="H66" s="20"/>
@@ -2822,10 +2822,10 @@
       <c r="C67" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="85" t="s">
-        <v>137</v>
-      </c>
-      <c r="E67" s="86"/>
+      <c r="D67" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="E67" s="57"/>
       <c r="F67" s="20"/>
       <c r="G67" s="20"/>
       <c r="H67" s="20"/>
@@ -2837,10 +2837,10 @@
       <c r="C68" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D68" s="85" t="s">
-        <v>138</v>
-      </c>
-      <c r="E68" s="86"/>
+      <c r="D68" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68" s="57"/>
       <c r="F68" s="20"/>
       <c r="G68" s="20"/>
       <c r="H68" s="20"/>
@@ -2852,10 +2852,10 @@
       <c r="C69" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="85" t="s">
-        <v>139</v>
-      </c>
-      <c r="E69" s="86"/>
+      <c r="D69" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="E69" s="57"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -2866,10 +2866,10 @@
       <c r="C70" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D70" s="85" t="s">
-        <v>140</v>
-      </c>
-      <c r="E70" s="86"/>
+      <c r="D70" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="E70" s="57"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -2880,10 +2880,10 @@
       <c r="C71" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D71" s="85" t="s">
-        <v>141</v>
-      </c>
-      <c r="E71" s="86"/>
+      <c r="D71" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="E71" s="57"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -2894,10 +2894,10 @@
       <c r="C72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D72" s="85" t="s">
-        <v>142</v>
-      </c>
-      <c r="E72" s="86"/>
+      <c r="D72" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="E72" s="57"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -2908,10 +2908,10 @@
       <c r="C73" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="85" t="s">
-        <v>143</v>
-      </c>
-      <c r="E73" s="86"/>
+      <c r="D73" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="E73" s="57"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>

--- a/controller/src/main/resources/jxls_templates/fireaccidentrecord.xlsx
+++ b/controller/src/main/resources/jxls_templates/fireaccidentrecord.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="消防事故单" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -159,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C80" authorId="1" shapeId="0">
+    <comment ref="C83" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="168">
   <si>
     <t>报警人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,10 +288,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>值班SIMT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>报警单编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -838,7 +834,28 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${commandrecord.alarmType.fire=="1"?"火灾":""}  ${commandrecord.alarmType.leak=="1"?"泄漏":""}  ${commandrecord.alarmType.gasLeak=="1"?"毒气泄漏":""}  ${commandrecord.alarmType.Injured=="1"?"受伤":""}  ${commandrecord.alarmType.other}</t>
+    <t>SIMT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${commandrecord.alarmType.fire=="1"?"火灾 ":""}${commandrecord.alarmType.leak=="1"?"泄漏 ":""}${commandrecord.alarmType.gasLeak=="1"?"毒气泄漏 ":""}${commandrecord.alarmType.Injured=="1"?"受伤":""}  ${commandrecord.alarmType.other}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${commandrecord.carinfo.car9.setOut}</t>
+  </si>
+  <si>
+    <t>${commandrecord.carinfo.car9.arrive}</t>
+  </si>
+  <si>
+    <t>${commandrecord.carinfo.car9.goBack}</t>
+  </si>
+  <si>
+    <t>3号安保车（${commandrecord.carinfo.car9.ffs}SGs）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${commandrecord.windirection}${commandrecord.windirection==""||commandrecord.windirection==null?"":"风"}${commandrecord.windPower}${commandrecord.windPower==""||commandrecord.windPower==null?"":"级"}${commandrecord.windSpeed==""||commandrecord.windSpeed==null?"":"("}${commandrecord.windSpeed}${commandrecord.windSpeed==""||commandrecord.windSpeed==null?"":"m/s)"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1300,6 +1317,15 @@
     <xf numFmtId="177" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1311,15 +1337,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1736,10 +1753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="D11" sqref="D11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1759,7 +1776,7 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="77"/>
       <c r="D2" s="77"/>
@@ -1804,10 +1821,10 @@
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
       <c r="C6" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="68"/>
@@ -1821,14 +1838,14 @@
         <v>21</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="59"/>
       <c r="F7" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" s="84"/>
       <c r="I7" s="6"/>
@@ -1839,14 +1856,14 @@
         <v>0</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="59"/>
       <c r="F8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H8" s="84"/>
       <c r="I8" s="3"/>
@@ -1858,14 +1875,14 @@
         <v>1</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="59"/>
       <c r="F9" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="70"/>
       <c r="I9" s="3"/>
@@ -1883,7 +1900,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="71"/>
       <c r="I10" s="3"/>
@@ -1894,14 +1911,14 @@
         <v>4</v>
       </c>
       <c r="D11" s="69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="70"/>
       <c r="F11" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H11" s="71"/>
       <c r="I11" s="3"/>
@@ -1912,14 +1929,14 @@
         <v>15</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="70"/>
       <c r="F12" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H12" s="71"/>
       <c r="I12" s="3"/>
@@ -1930,14 +1947,14 @@
         <v>7</v>
       </c>
       <c r="D13" s="69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" s="70"/>
       <c r="F13" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H13" s="86"/>
       <c r="I13" s="3"/>
@@ -1948,14 +1965,14 @@
         <v>9</v>
       </c>
       <c r="D14" s="69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" s="70"/>
       <c r="F14" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H14" s="71"/>
       <c r="I14" s="3"/>
@@ -1966,14 +1983,14 @@
         <v>17</v>
       </c>
       <c r="D15" s="69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="70"/>
       <c r="F15" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H15" s="71"/>
       <c r="I15" s="3"/>
@@ -1984,7 +2001,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" s="82"/>
       <c r="F16" s="82"/>
@@ -2008,9 +2025,11 @@
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E18" s="17"/>
+        <v>148</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>167</v>
+      </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -2029,10 +2048,10 @@
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E20" s="68"/>
       <c r="F20" s="68"/>
@@ -2046,14 +2065,14 @@
         <v>20</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" s="59"/>
       <c r="F21" s="12" t="s">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="G21" s="60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H21" s="61"/>
       <c r="I21" s="6"/>
@@ -2072,7 +2091,7 @@
     <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="53"/>
       <c r="E23" s="53"/>
@@ -2085,10 +2104,10 @@
     <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
       <c r="C24" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" s="73"/>
       <c r="F24" s="40"/>
@@ -2100,10 +2119,10 @@
     <row r="25" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
       <c r="C25" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="74" t="s">
         <v>89</v>
-      </c>
-      <c r="D25" s="74" t="s">
-        <v>90</v>
       </c>
       <c r="E25" s="75"/>
       <c r="F25" s="41"/>
@@ -2125,31 +2144,31 @@
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
-      <c r="C27" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
+      <c r="C27" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
       <c r="I27" s="3"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
       <c r="C28" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="52" t="s">
         <v>29</v>
-      </c>
-      <c r="D28" s="52" t="s">
-        <v>30</v>
       </c>
       <c r="E28" s="54"/>
       <c r="F28" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G28" s="52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H28" s="54"/>
       <c r="I28" s="3"/>
@@ -2158,17 +2177,17 @@
     <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
       <c r="C29" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E29" s="65"/>
       <c r="F29" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G29" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H29" s="63"/>
       <c r="I29" s="3"/>
@@ -2187,33 +2206,33 @@
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
-      <c r="C31" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
+      <c r="C31" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
       <c r="I31" s="3"/>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
       <c r="C32" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="24" t="s">
-        <v>34</v>
-      </c>
       <c r="F32" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G32" s="52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32" s="54"/>
       <c r="I32" s="3"/>
@@ -2222,19 +2241,19 @@
     <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="4"/>
       <c r="C33" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" s="66" t="s">
         <v>95</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="G33" s="66" t="s">
-        <v>96</v>
       </c>
       <c r="H33" s="67"/>
       <c r="I33" s="3"/>
@@ -2253,289 +2272,295 @@
     </row>
     <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="4"/>
-      <c r="C35" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
+      <c r="C35" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
       <c r="I35" s="3"/>
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="4"/>
       <c r="C36" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="E36" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F36" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="H36" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="4"/>
-      <c r="C37" s="49" t="s">
-        <v>101</v>
+      <c r="C37" s="45" t="s">
+        <v>100</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="F37" s="49" t="s">
-        <v>100</v>
+        <v>104</v>
+      </c>
+      <c r="F37" s="45" t="s">
+        <v>99</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="4"/>
-      <c r="C38" s="50"/>
+      <c r="C38" s="46"/>
       <c r="D38" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="F38" s="50"/>
+        <v>105</v>
+      </c>
+      <c r="F38" s="46"/>
       <c r="G38" s="18" t="s">
         <v>22</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="4"/>
-      <c r="C39" s="51"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" s="51"/>
+        <v>106</v>
+      </c>
+      <c r="F39" s="47"/>
       <c r="G39" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="4"/>
-      <c r="C40" s="49" t="s">
-        <v>127</v>
+      <c r="C40" s="45" t="s">
+        <v>126</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="F40" s="49" t="s">
-        <v>104</v>
+        <v>110</v>
+      </c>
+      <c r="F40" s="45" t="s">
+        <v>103</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
-      <c r="C41" s="50"/>
+      <c r="C41" s="46"/>
       <c r="D41" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="F41" s="50"/>
+        <v>111</v>
+      </c>
+      <c r="F41" s="46"/>
       <c r="G41" s="18" t="s">
         <v>22</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="4"/>
-      <c r="C42" s="51"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="F42" s="51"/>
+        <v>112</v>
+      </c>
+      <c r="F42" s="47"/>
       <c r="G42" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="4"/>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="F43" s="49" t="s">
-        <v>103</v>
-      </c>
       <c r="G43" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="4"/>
-      <c r="C44" s="50"/>
+      <c r="C44" s="46"/>
       <c r="D44" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F44" s="50"/>
+        <v>117</v>
+      </c>
+      <c r="F44" s="46"/>
       <c r="G44" s="18" t="s">
         <v>22</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="4"/>
-      <c r="C45" s="51"/>
+      <c r="C45" s="47"/>
       <c r="D45" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="F45" s="51"/>
+        <v>118</v>
+      </c>
+      <c r="F45" s="47"/>
       <c r="G45" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="4"/>
-      <c r="C46" s="49" t="s">
+      <c r="C46" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="D46" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" s="21" t="s">
+      <c r="G46" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="28" t="s">
         <v>123</v>
-      </c>
-      <c r="F46" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H46" s="28" t="s">
-        <v>124</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="4"/>
-      <c r="C47" s="50"/>
+      <c r="C47" s="46"/>
       <c r="D47" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="F47" s="50"/>
+        <v>127</v>
+      </c>
+      <c r="F47" s="46"/>
       <c r="G47" s="18" t="s">
         <v>22</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="4"/>
-      <c r="C48" s="51"/>
+      <c r="C48" s="47"/>
       <c r="D48" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="F48" s="51"/>
+        <v>131</v>
+      </c>
+      <c r="F48" s="47"/>
       <c r="G48" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="5"/>
     </row>
     <row r="49" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="4"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="31"/>
+      <c r="C49" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>163</v>
+      </c>
       <c r="F49" s="29"/>
       <c r="G49" s="30"/>
       <c r="H49" s="31"/>
@@ -2544,246 +2569,253 @@
     </row>
     <row r="50" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="4"/>
-      <c r="C50" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="54"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="F50" s="29"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="31"/>
       <c r="I50" s="3"/>
       <c r="J50" s="5"/>
     </row>
     <row r="51" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="4"/>
-      <c r="C51" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="C51" s="47"/>
+      <c r="D51" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="F51" s="29"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="31"/>
       <c r="I51" s="3"/>
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="4"/>
-      <c r="C52" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="F52" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="H52" s="28" t="s">
-        <v>155</v>
-      </c>
+      <c r="C52" s="29"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="31"/>
       <c r="I52" s="3"/>
       <c r="J52" s="5"/>
     </row>
     <row r="53" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="4"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="F53" s="51"/>
-      <c r="G53" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="H53" s="28" t="s">
-        <v>157</v>
-      </c>
+      <c r="C53" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="54"/>
       <c r="I53" s="3"/>
       <c r="J53" s="5"/>
     </row>
     <row r="54" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="4"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="31"/>
+      <c r="C54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="I54" s="3"/>
       <c r="J54" s="5"/>
     </row>
     <row r="55" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="4"/>
-      <c r="C55" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="H55" s="36"/>
+      <c r="C55" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="F55" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H55" s="28" t="s">
+        <v>154</v>
+      </c>
       <c r="I55" s="3"/>
       <c r="J55" s="5"/>
     </row>
     <row r="56" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="4"/>
-      <c r="C56" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F56" s="29"/>
-      <c r="G56" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H56" s="44" t="s">
-        <v>148</v>
+      <c r="C56" s="55"/>
+      <c r="D56" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="F56" s="47"/>
+      <c r="G56" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="H56" s="28" t="s">
+        <v>156</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="E57" s="28" t="s">
-        <v>134</v>
-      </c>
+      <c r="C57" s="29"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="31"/>
       <c r="F57" s="29"/>
-      <c r="G57" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H57" s="28" t="s">
-        <v>147</v>
-      </c>
+      <c r="G57" s="30"/>
+      <c r="H57" s="31"/>
       <c r="I57" s="3"/>
       <c r="J57" s="5"/>
     </row>
     <row r="58" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
-      <c r="C58" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E58" s="28" t="s">
-        <v>145</v>
-      </c>
+      <c r="C58" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
       <c r="F58" s="29"/>
-      <c r="G58" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H58" s="28" t="s">
-        <v>161</v>
-      </c>
+      <c r="G58" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H58" s="36"/>
       <c r="I58" s="3"/>
       <c r="J58" s="5"/>
     </row>
     <row r="59" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="4"/>
-      <c r="C59" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E59" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="F59" s="20"/>
+      <c r="C59" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F59" s="29"/>
+      <c r="G59" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H59" s="44" t="s">
+        <v>147</v>
+      </c>
       <c r="I59" s="3"/>
       <c r="J59" s="5"/>
     </row>
     <row r="60" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="4"/>
       <c r="C60" s="27" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D60" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F60" s="29"/>
+      <c r="G60" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H60" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="E60" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="F60" s="20"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="31"/>
       <c r="I60" s="3"/>
       <c r="J60" s="5"/>
     </row>
     <row r="61" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="4"/>
       <c r="C61" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="E61" s="48"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
+        <v>46</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F61" s="29"/>
+      <c r="G61" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H61" s="28" t="s">
+        <v>160</v>
+      </c>
       <c r="I61" s="3"/>
       <c r="J61" s="5"/>
     </row>
     <row r="62" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="4"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
+      <c r="C62" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>129</v>
+      </c>
       <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
       <c r="I62" s="3"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="16"/>
+    <row r="63" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="4"/>
+      <c r="C63" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="F63" s="20"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="5"/>
     </row>
     <row r="64" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="4"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
+      <c r="C64" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" s="51"/>
       <c r="F64" s="20"/>
       <c r="G64" s="20"/>
       <c r="H64" s="20"/>
@@ -2792,40 +2824,32 @@
     </row>
     <row r="65" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="4"/>
-      <c r="C65" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D65" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="E65" s="88"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
       <c r="I65" s="3"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="4"/>
-      <c r="C66" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D66" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="E66" s="57"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="5"/>
+    <row r="66" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="16"/>
     </row>
     <row r="67" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="4"/>
-      <c r="C67" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D67" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="E67" s="57"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
       <c r="F67" s="20"/>
       <c r="G67" s="20"/>
       <c r="H67" s="20"/>
@@ -2834,68 +2858,68 @@
     </row>
     <row r="68" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="4"/>
-      <c r="C68" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D68" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="E68" s="57"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
+      <c r="C68" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="88"/>
       <c r="I68" s="3"/>
       <c r="J68" s="5"/>
     </row>
     <row r="69" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="4"/>
       <c r="C69" s="13" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="D69" s="56" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E69" s="57"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
       <c r="I69" s="3"/>
+      <c r="J69" s="5"/>
     </row>
     <row r="70" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="4"/>
       <c r="C70" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D70" s="56" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E70" s="57"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
       <c r="I70" s="3"/>
+      <c r="J70" s="5"/>
     </row>
     <row r="71" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="4"/>
       <c r="C71" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D71" s="56" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E71" s="57"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
       <c r="I71" s="3"/>
+      <c r="J71" s="5"/>
     </row>
     <row r="72" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="4"/>
       <c r="C72" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D72" s="56" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E72" s="57"/>
       <c r="F72" s="2"/>
@@ -2906,10 +2930,10 @@
     <row r="73" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="4"/>
       <c r="C73" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D73" s="56" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E73" s="57"/>
       <c r="F73" s="2"/>
@@ -2919,53 +2943,67 @@
     </row>
     <row r="74" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="4"/>
+      <c r="C74" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="E74" s="57"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C75" s="15"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="16"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="4"/>
+      <c r="C75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D75" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="E75" s="57"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
+      <c r="C76" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D76" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="E76" s="57"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="3"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="3"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B78" s="4"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="3"/>
+    <row r="78" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="15"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="16"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B79" s="4"/>
-      <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -2975,9 +3013,8 @@
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" s="4"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="45"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -2985,9 +3022,8 @@
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="4"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="45"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -2995,9 +3031,9 @@
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="4"/>
-      <c r="C82" s="45"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="45"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -3005,9 +3041,9 @@
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="4"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="45"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="48"/>
+      <c r="E83" s="48"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -3015,9 +3051,9 @@
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="4"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="45"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="48"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -3025,18 +3061,19 @@
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="4"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="45"/>
-      <c r="G85" s="35"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="3"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="4"/>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="45"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="48"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -3044,9 +3081,9 @@
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="4"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="45"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="48"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
@@ -3054,19 +3091,18 @@
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="4"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="48"/>
+      <c r="E88" s="48"/>
+      <c r="G88" s="35"/>
       <c r="H88" s="2"/>
       <c r="I88" s="3"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="4"/>
-      <c r="C89" s="45"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="45"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="48"/>
+      <c r="E89" s="48"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
@@ -3074,9 +3110,9 @@
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="4"/>
-      <c r="C90" s="45"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="45"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="48"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
@@ -3084,9 +3120,9 @@
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="4"/>
-      <c r="C91" s="45"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="45"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="48"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
@@ -3094,31 +3130,56 @@
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="4"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="48"/>
+      <c r="E92" s="48"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="3"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B93" s="32"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="33"/>
-      <c r="G93" s="33"/>
-      <c r="H93" s="33"/>
-      <c r="I93" s="34"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="3"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B94" s="4"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="48"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="3"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B95" s="4"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="3"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B96" s="32"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
+  <mergeCells count="60">
     <mergeCell ref="B2:I3"/>
     <mergeCell ref="D16:H16"/>
     <mergeCell ref="D13:E13"/>
@@ -3157,21 +3218,27 @@
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="C80:E91"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="C40:C42"/>
     <mergeCell ref="F40:F42"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="F55:F56"/>
     <mergeCell ref="C43:C45"/>
     <mergeCell ref="F43:F45"/>
     <mergeCell ref="C46:C48"/>
     <mergeCell ref="F46:F48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C83:E94"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D73:E73"/>
     <mergeCell ref="D72:E72"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/controller/src/main/resources/jxls_templates/fireaccidentrecord.xlsx
+++ b/controller/src/main/resources/jxls_templates/fireaccidentrecord.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28615"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\idea_project\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skaixx/newparkcloud/controller/src/main/resources/jxls_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18645" windowHeight="7140"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="消防事故单" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,7 +33,7 @@
     <author>王哲</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0" shapeId="0">
+    <comment ref="A25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A29" authorId="0" shapeId="0">
+    <comment ref="A29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A33" authorId="0" shapeId="0">
+    <comment ref="A33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +167,43 @@
         </r>
       </text>
     </comment>
-    <comment ref="C83" authorId="1" shapeId="0">
+    <comment ref="A37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Newtouch:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="carinfolist" var="item" lastCell="I39")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C71" authorId="1">
       <text>
         <r>
           <rPr>
@@ -190,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="136">
   <si>
     <t>报警人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -586,122 +630,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2号泡沫水罐车（${commandrecord.carinfo.car2.ffs}FFs）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1号泡沫水罐车（${commandrecord.carinfo.car1.ffs}FFs）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5号泡沫水罐车（${commandrecord.carinfo.car5.ffs}FFs）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6号泡沫水罐车（${commandrecord.carinfo.car6.ffs}FFs）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4号涡喷车（${commandrecord.carinfo.car4.ffs}FFs）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${commandrecord.carinfo.car1.setOut}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${commandrecord.carinfo.car1.arrive}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${commandrecord.carinfo.car1.goBack}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${commandrecord.carinfo.car2.setOut}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${commandrecord.carinfo.car2.arrive}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${commandrecord.carinfo.car2.goBack}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${commandrecord.carinfo.car3.setOut}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${commandrecord.carinfo.car3.arrive}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${commandrecord.carinfo.car3.goBack}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${commandrecord.carinfo.car4.setOut}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${commandrecord.carinfo.car4.arrive}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${commandrecord.carinfo.car4.goBack}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${commandrecord.carinfo.car5.setOut}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${commandrecord.carinfo.car5.arrive}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${commandrecord.carinfo.car5.goBack}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${commandrecord.carinfo.car6.setOut}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${commandrecord.carinfo.car6.arrive}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${commandrecord.carinfo.car6.goBack}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${commandrecord.carinfo.car7.setOut}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${commandrecord.carinfo.car8.setOut}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${commandrecord.carinfo.car8.arrive}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${commandrecord.carinfo.car8.goBack}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3号化救车（${commandrecord.carinfo.car3.ffs}FFs）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${commandrecord.carinfo.car7.arrive}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${commandrecord.scip.other}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -711,10 +639,6 @@
   </si>
   <si>
     <t>${commandrecord.scip.managementCommittee}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${commandrecord.carinfo.car7.goBack}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -822,14 +746,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1号安保车（${commandrecord.carinfo.car1.ffs}SGs）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2号安保车（${commandrecord.carinfo.car8.ffs}SGs）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${commandrecord.InternalNotification.simt=="1"?"SIMT":""}  ${commandrecord.InternalNotification.ehs=="1"?"EHS":""}  ${commandrecord.InternalNotification.plant=="1"?"Plant":""}  ${commandrecord.InternalNotification.em=="1"?"E&amp;M":""}  ${commandrecord.InternalNotification.others}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -842,20 +758,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${commandrecord.carinfo.car9.setOut}</t>
-  </si>
-  <si>
-    <t>${commandrecord.carinfo.car9.arrive}</t>
-  </si>
-  <si>
-    <t>${commandrecord.carinfo.car9.goBack}</t>
-  </si>
-  <si>
-    <t>3号安保车（${commandrecord.carinfo.car9.ffs}SGs）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${commandrecord.windirection}${commandrecord.windirection==""||commandrecord.windirection==null?"":"风"}${commandrecord.windPower}${commandrecord.windPower==""||commandrecord.windPower==null?"":"级"}${commandrecord.windSpeed==""||commandrecord.windSpeed==null?"":"("}${commandrecord.windSpeed}${commandrecord.windSpeed==""||commandrecord.windSpeed==null?"":"m/s)"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.carnum}（${item.ffs}FFs）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.setOut}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.arrive}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.goBack}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -871,20 +790,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1015,7 +934,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1074,42 +993,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1117,58 +1036,47 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1177,18 +1085,18 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1198,10 +1106,10 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1209,7 +1117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1286,9 +1194,9 @@
     <xf numFmtId="176" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1317,15 +1225,6 @@
     <xf numFmtId="177" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1338,6 +1237,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1350,10 +1261,10 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1395,7 +1306,7 @@
     <xf numFmtId="176" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1440,14 +1351,47 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1509,12 +1453,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1544,12 +1488,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1753,50 +1697,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39:H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="76" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="79"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="81"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="79"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="80"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="82"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
@@ -1808,7 +1752,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1818,198 +1762,198 @@
       <c r="H5" s="8"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="59"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="G7" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="84"/>
+      <c r="H7" s="85"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="59"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="83" t="s">
+      <c r="G8" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="84"/>
+      <c r="H8" s="85"/>
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="59"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="69" t="s">
+      <c r="G9" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="70"/>
+      <c r="H9" s="71"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" s="59"/>
+      <c r="D10" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="60"/>
       <c r="F10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="69" t="s">
+      <c r="G10" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="71"/>
+      <c r="H10" s="72"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="70"/>
+      <c r="E11" s="71"/>
       <c r="F11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="71"/>
+      <c r="H11" s="72"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="70"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="69" t="s">
+      <c r="G12" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="71"/>
+      <c r="H12" s="72"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="70"/>
+      <c r="E13" s="71"/>
       <c r="F13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="85" t="s">
+      <c r="G13" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="H13" s="86"/>
+      <c r="H13" s="87"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="70"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="69" t="s">
+      <c r="G14" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="71"/>
+      <c r="H14" s="72"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="70"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="69" t="s">
+      <c r="G15" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="71"/>
+      <c r="H15" s="72"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:10" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="53" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2019,23 +1963,23 @@
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="17" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="16"/>
     </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2045,39 +1989,39 @@
       <c r="H19" s="8"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="68" t="s">
+      <c r="D20" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="59"/>
+      <c r="E21" s="60"/>
       <c r="F21" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="G21" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="61"/>
+      <c r="H21" s="62"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="19"/>
       <c r="D22" s="20"/>
@@ -2088,50 +2032,50 @@
       <c r="I22" s="3"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="55"/>
       <c r="I23" s="3"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="72" t="s">
+      <c r="D24" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="73"/>
+      <c r="E24" s="74"/>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="39"/>
       <c r="I24" s="3"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="74" t="s">
+      <c r="D25" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="75"/>
+      <c r="E25" s="76"/>
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
       <c r="H25" s="42"/>
       <c r="I25" s="3"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="19"/>
       <c r="D26" s="20"/>
@@ -2142,58 +2086,58 @@
       <c r="I26" s="3"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
       <c r="I27" s="3"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="54"/>
+      <c r="E28" s="55"/>
       <c r="F28" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="52" t="s">
+      <c r="G28" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="54"/>
+      <c r="H28" s="55"/>
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="65"/>
+      <c r="E29" s="66"/>
       <c r="F29" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="62" t="s">
+      <c r="G29" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="H29" s="63"/>
+      <c r="H29" s="64"/>
       <c r="I29" s="3"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="19"/>
       <c r="D30" s="20"/>
@@ -2204,20 +2148,20 @@
       <c r="I30" s="3"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
       <c r="I31" s="3"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="22" t="s">
         <v>28</v>
@@ -2231,14 +2175,14 @@
       <c r="F32" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="52" t="s">
+      <c r="G32" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="54"/>
+      <c r="H32" s="55"/>
       <c r="I32" s="3"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="37" t="s">
         <v>94</v>
@@ -2252,14 +2196,14 @@
       <c r="F33" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="66" t="s">
+      <c r="G33" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="H33" s="67"/>
+      <c r="H33" s="68"/>
       <c r="I33" s="3"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="19"/>
       <c r="D34" s="20"/>
@@ -2270,572 +2214,482 @@
       <c r="I34" s="3"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
       <c r="I35" s="3"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="74"/>
+      <c r="E36" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="F36" s="95" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="96"/>
+      <c r="H36" s="97"/>
       <c r="I36" s="3"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="88"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="18" t="s">
+      <c r="C37" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="90"/>
+      <c r="E37" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F37" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="28" t="s">
-        <v>107</v>
-      </c>
+      <c r="F37" s="98" t="s">
+        <v>133</v>
+      </c>
+      <c r="G37" s="99"/>
+      <c r="H37" s="100"/>
       <c r="I37" s="3"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="88"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="18" t="s">
+      <c r="C38" s="91"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" s="28" t="s">
-        <v>108</v>
-      </c>
+      <c r="F38" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" s="99"/>
+      <c r="H38" s="100"/>
       <c r="I38" s="3"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="88"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="18" t="s">
+      <c r="C39" s="93"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="F39" s="47"/>
-      <c r="G39" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H39" s="28" t="s">
-        <v>109</v>
-      </c>
+      <c r="F39" s="98" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39" s="99"/>
+      <c r="H39" s="100"/>
       <c r="I39" s="3"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
-      <c r="C40" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="F40" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="G40" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" s="28" t="s">
-        <v>113</v>
-      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="31"/>
       <c r="I40" s="3"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="F41" s="46"/>
-      <c r="G41" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" s="28" t="s">
-        <v>114</v>
-      </c>
+      <c r="C41" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="55"/>
       <c r="I41" s="3"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" s="47"/>
-      <c r="G42" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H42" s="28" t="s">
-        <v>115</v>
+      <c r="C42" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
-      <c r="C43" s="45" t="s">
-        <v>101</v>
+      <c r="C43" s="56" t="s">
+        <v>42</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="F43" s="45" t="s">
-        <v>102</v>
+        <v>120</v>
+      </c>
+      <c r="F43" s="57" t="s">
+        <v>43</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
-      <c r="C44" s="46"/>
+      <c r="C44" s="56"/>
       <c r="D44" s="18" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="F44" s="46"/>
+        <v>122</v>
+      </c>
+      <c r="F44" s="58"/>
       <c r="G44" s="18" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F45" s="47"/>
-      <c r="G45" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H45" s="28" t="s">
-        <v>121</v>
-      </c>
+      <c r="C45" s="29"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="31"/>
       <c r="I45" s="3"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
-      <c r="C46" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F46" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="28" t="s">
-        <v>123</v>
-      </c>
+      <c r="C46" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H46" s="36"/>
       <c r="I46" s="3"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F47" s="46"/>
-      <c r="G47" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" s="28" t="s">
-        <v>124</v>
+      <c r="C47" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="29"/>
+      <c r="G47" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" s="44" t="s">
+        <v>117</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="F48" s="47"/>
-      <c r="G48" s="18" t="s">
-        <v>39</v>
+      <c r="C48" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" s="29"/>
+      <c r="G48" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
-      <c r="C49" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>38</v>
+      <c r="C49" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="F49" s="29"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="31"/>
+      <c r="G49" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="I49" s="3"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="18" t="s">
-        <v>22</v>
+      <c r="C50" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="31"/>
+        <v>100</v>
+      </c>
+      <c r="F50" s="20"/>
       <c r="I50" s="3"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="18" t="s">
-        <v>39</v>
+      <c r="C51" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>115</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="F51" s="29"/>
+        <v>101</v>
+      </c>
+      <c r="F51" s="20"/>
       <c r="G51" s="30"/>
       <c r="H51" s="31"/>
       <c r="I51" s="3"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="31"/>
+      <c r="C52" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="48"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
       <c r="I52" s="3"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
-      <c r="C53" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="54"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
       <c r="I53" s="3"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="4"/>
-      <c r="C54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="16"/>
+    </row>
+    <row r="55" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
-      <c r="C55" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="F55" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="G55" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="H55" s="28" t="s">
-        <v>154</v>
-      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
       <c r="I55" s="3"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="E56" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="H56" s="28" t="s">
-        <v>156</v>
-      </c>
+      <c r="C56" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="52"/>
       <c r="I56" s="3"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="31"/>
+      <c r="C57" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="50"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
       <c r="I57" s="3"/>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
-      <c r="C58" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="H58" s="36"/>
+      <c r="C58" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" s="50"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
       <c r="I58" s="3"/>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
-      <c r="C59" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F59" s="29"/>
-      <c r="G59" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H59" s="44" t="s">
-        <v>147</v>
-      </c>
+      <c r="C59" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" s="50"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
       <c r="I59" s="3"/>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
-      <c r="C60" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="E60" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="F60" s="29"/>
-      <c r="G60" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H60" s="28" t="s">
-        <v>146</v>
-      </c>
+      <c r="C60" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" s="50"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
       <c r="I60" s="3"/>
-      <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
-      <c r="C61" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E61" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="F61" s="29"/>
-      <c r="G61" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H61" s="28" t="s">
-        <v>160</v>
-      </c>
+      <c r="C61" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="E61" s="50"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
       <c r="I61" s="3"/>
-      <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
-      <c r="C62" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E62" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="F62" s="20"/>
+      <c r="C62" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E62" s="50"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
       <c r="I62" s="3"/>
-      <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
-      <c r="C63" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E63" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="F63" s="20"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="31"/>
+      <c r="C63" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="E63" s="50"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="5"/>
-    </row>
-    <row r="64" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="4"/>
-      <c r="C64" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="E64" s="51"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
+      <c r="C64" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D64" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="E64" s="50"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
       <c r="I64" s="3"/>
-      <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="4"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
       <c r="I65" s="3"/>
-      <c r="J65" s="5"/>
-    </row>
-    <row r="66" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="17"/>
@@ -2845,341 +2699,191 @@
       <c r="H66" s="15"/>
       <c r="I66" s="16"/>
     </row>
-    <row r="67" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="4"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
       <c r="I67" s="3"/>
-      <c r="J67" s="5"/>
-    </row>
-    <row r="68" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="4"/>
-      <c r="C68" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D68" s="87" t="s">
-        <v>28</v>
-      </c>
-      <c r="E68" s="88"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
       <c r="I68" s="3"/>
-      <c r="J68" s="5"/>
-    </row>
-    <row r="69" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="4"/>
-      <c r="C69" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D69" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="E69" s="57"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
       <c r="I69" s="3"/>
-      <c r="J69" s="5"/>
-    </row>
-    <row r="70" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="4"/>
-      <c r="C70" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D70" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="E70" s="57"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
       <c r="I70" s="3"/>
-      <c r="J70" s="5"/>
-    </row>
-    <row r="71" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
-      <c r="C71" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="E71" s="57"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
       <c r="I71" s="3"/>
-      <c r="J71" s="5"/>
-    </row>
-    <row r="72" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="4"/>
-      <c r="C72" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D72" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="E72" s="57"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="45"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="4"/>
-      <c r="C73" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D73" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="E73" s="57"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="4"/>
-      <c r="C74" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D74" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="E74" s="57"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="45"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
-      <c r="C75" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D75" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="E75" s="57"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="4"/>
-      <c r="C76" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D76" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="E76" s="57"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+      <c r="G76" s="35"/>
       <c r="H76" s="2"/>
       <c r="I76" s="3"/>
     </row>
-    <row r="77" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="4"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="45"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="3"/>
     </row>
-    <row r="78" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C78" s="15"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="16"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="4"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="3"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="4"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="3"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="4"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="45"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="3"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="4"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="45"/>
+      <c r="E81" s="45"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="3"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="4"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="45"/>
+      <c r="E82" s="45"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="3"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="4"/>
-      <c r="C83" s="48"/>
-      <c r="D83" s="48"/>
-      <c r="E83" s="48"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="3"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B84" s="4"/>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B85" s="4"/>
-      <c r="C85" s="48"/>
-      <c r="D85" s="48"/>
-      <c r="E85" s="48"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="3"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B86" s="4"/>
-      <c r="C86" s="48"/>
-      <c r="D86" s="48"/>
-      <c r="E86" s="48"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="3"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B87" s="4"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="48"/>
-      <c r="E87" s="48"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="3"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B88" s="4"/>
-      <c r="C88" s="48"/>
-      <c r="D88" s="48"/>
-      <c r="E88" s="48"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="3"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B89" s="4"/>
-      <c r="C89" s="48"/>
-      <c r="D89" s="48"/>
-      <c r="E89" s="48"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="3"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B90" s="4"/>
-      <c r="C90" s="48"/>
-      <c r="D90" s="48"/>
-      <c r="E90" s="48"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="3"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B91" s="4"/>
-      <c r="C91" s="48"/>
-      <c r="D91" s="48"/>
-      <c r="E91" s="48"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="3"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B92" s="4"/>
-      <c r="C92" s="48"/>
-      <c r="D92" s="48"/>
-      <c r="E92" s="48"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="3"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B93" s="4"/>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48"/>
-      <c r="E93" s="48"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="3"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B94" s="4"/>
-      <c r="C94" s="48"/>
-      <c r="D94" s="48"/>
-      <c r="E94" s="48"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="3"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B95" s="4"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="3"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B96" s="32"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="33"/>
-      <c r="I96" s="34"/>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="32"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="58">
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D39"/>
     <mergeCell ref="B2:I3"/>
     <mergeCell ref="D16:H16"/>
     <mergeCell ref="D13:E13"/>
@@ -3206,11 +2910,9 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="F43:F44"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="G21:H21"/>
@@ -3218,28 +2920,21 @@
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C83:E94"/>
-    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C71:E82"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
     <mergeCell ref="D64:E64"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/controller/src/main/resources/jxls_templates/fireaccidentrecord.xlsx
+++ b/controller/src/main/resources/jxls_templates/fireaccidentrecord.xlsx
@@ -702,10 +702,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${commandrecord.Casualties.number!=""?commandrecord.Casualties.number:"无"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${commandrecord.commandType=="0"?"":"演习"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -775,6 +771,13 @@
   </si>
   <si>
     <t>${item.goBack}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${commandrecord.Casualties.number=="0"?"有":"无"}</t>
+    <rPh sb="40" eb="41">
+      <t>you</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1354,6 +1357,24 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1374,24 +1395,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1699,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39:H39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -1837,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" s="60"/>
       <c r="F10" s="10" t="s">
@@ -1969,10 +1972,10 @@
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
@@ -2013,7 +2016,7 @@
       </c>
       <c r="E21" s="60"/>
       <c r="F21" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G21" s="61" t="s">
         <v>83</v>
@@ -2236,61 +2239,61 @@
       <c r="E36" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="95" t="s">
+      <c r="F36" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="G36" s="96"/>
-      <c r="H36" s="97"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="90"/>
       <c r="I36" s="3"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="88"/>
+      <c r="A37" s="94"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="89" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="90"/>
+      <c r="C37" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="96"/>
       <c r="E37" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="98" t="s">
-        <v>133</v>
-      </c>
-      <c r="G37" s="99"/>
-      <c r="H37" s="100"/>
+      <c r="F37" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="G37" s="92"/>
+      <c r="H37" s="93"/>
       <c r="I37" s="3"/>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="88"/>
+      <c r="A38" s="94"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="92"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="98"/>
       <c r="E38" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="98" t="s">
-        <v>134</v>
-      </c>
-      <c r="G38" s="99"/>
-      <c r="H38" s="100"/>
+      <c r="F38" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" s="92"/>
+      <c r="H38" s="93"/>
       <c r="I38" s="3"/>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="88"/>
+      <c r="A39" s="94"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="94"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="100"/>
       <c r="E39" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F39" s="98" t="s">
-        <v>135</v>
-      </c>
-      <c r="G39" s="99"/>
-      <c r="H39" s="100"/>
+      <c r="F39" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="G39" s="92"/>
+      <c r="H39" s="93"/>
       <c r="I39" s="3"/>
       <c r="J39" s="5"/>
     </row>
@@ -2347,19 +2350,19 @@
         <v>42</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F43" s="57" t="s">
         <v>43</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="5"/>
@@ -2368,17 +2371,17 @@
       <c r="B44" s="4"/>
       <c r="C44" s="56"/>
       <c r="D44" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F44" s="58"/>
       <c r="G44" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="5"/>
@@ -2425,7 +2428,7 @@
         <v>59</v>
       </c>
       <c r="H47" s="44" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="5"/>
@@ -2436,7 +2439,7 @@
         <v>45</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E48" s="28" t="s">
         <v>103</v>
@@ -2467,7 +2470,7 @@
         <v>61</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="5"/>
@@ -2877,9 +2880,6 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
     <mergeCell ref="F39:H39"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="C36:D36"/>
@@ -2923,6 +2923,9 @@
     <mergeCell ref="C35:H35"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="G33:H33"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F38:H38"/>
     <mergeCell ref="C71:E82"/>
     <mergeCell ref="C46:E46"/>
     <mergeCell ref="D52:E52"/>
